--- a/Civilworks cost/Protective Work Latest/Flood Fuse -14 (For Working)-2/Pac-30/Noagan Part-A -Pac-30.xlsx
+++ b/Civilworks cost/Protective Work Latest/Flood Fuse -14 (For Working)-2/Pac-30/Noagan Part-A -Pac-30.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\cmis6\Civilworks cost\Protective Work Latest\Flood Fuse -14 (For Working)-2\Pac-30\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
@@ -18,7 +23,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Abst.!$3:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Detail!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -909,7 +914,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
@@ -1656,30 +1661,48 @@
     <xf numFmtId="2" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1697,24 +1720,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1783,7 +1788,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1818,7 +1823,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2049,36 +2054,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="184" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="183"/>
       <c r="O1" s="25"/>
     </row>
     <row r="2" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="185" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
       <c r="L2" s="1" t="s">
@@ -2089,18 +2094,18 @@
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="173" t="s">
+      <c r="B3" s="181" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="179"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="179"/>
-      <c r="H3" s="179"/>
-      <c r="I3" s="179"/>
-      <c r="J3" s="179"/>
-      <c r="K3" s="180"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="182"/>
       <c r="L3" s="26"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -2381,18 +2386,18 @@
       <c r="A16" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="173" t="s">
+      <c r="B16" s="181" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="179"/>
-      <c r="D16" s="179"/>
-      <c r="E16" s="179"/>
-      <c r="F16" s="179"/>
-      <c r="G16" s="179"/>
-      <c r="H16" s="179"/>
-      <c r="I16" s="179"/>
-      <c r="J16" s="179"/>
-      <c r="K16" s="180"/>
+      <c r="C16" s="174"/>
+      <c r="D16" s="174"/>
+      <c r="E16" s="174"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="174"/>
+      <c r="I16" s="174"/>
+      <c r="J16" s="174"/>
+      <c r="K16" s="182"/>
       <c r="L16" s="27"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -2826,18 +2831,18 @@
       <c r="A35" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="173" t="s">
+      <c r="B35" s="181" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="179"/>
-      <c r="D35" s="179"/>
-      <c r="E35" s="179"/>
-      <c r="F35" s="179"/>
-      <c r="G35" s="179"/>
-      <c r="H35" s="179"/>
-      <c r="I35" s="179"/>
-      <c r="J35" s="179"/>
-      <c r="K35" s="180"/>
+      <c r="C35" s="174"/>
+      <c r="D35" s="174"/>
+      <c r="E35" s="174"/>
+      <c r="F35" s="174"/>
+      <c r="G35" s="174"/>
+      <c r="H35" s="174"/>
+      <c r="I35" s="174"/>
+      <c r="J35" s="174"/>
+      <c r="K35" s="182"/>
       <c r="L35" s="27"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2882,18 +2887,18 @@
       <c r="A38" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="173" t="s">
+      <c r="B38" s="181" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="179"/>
-      <c r="D38" s="179"/>
-      <c r="E38" s="179"/>
-      <c r="F38" s="179"/>
-      <c r="G38" s="179"/>
-      <c r="H38" s="179"/>
-      <c r="I38" s="179"/>
-      <c r="J38" s="179"/>
-      <c r="K38" s="180"/>
+      <c r="C38" s="174"/>
+      <c r="D38" s="174"/>
+      <c r="E38" s="174"/>
+      <c r="F38" s="174"/>
+      <c r="G38" s="174"/>
+      <c r="H38" s="174"/>
+      <c r="I38" s="174"/>
+      <c r="J38" s="174"/>
+      <c r="K38" s="182"/>
       <c r="L38" s="27"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2938,18 +2943,18 @@
       <c r="A41" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="173" t="s">
+      <c r="B41" s="181" t="s">
         <v>129</v>
       </c>
-      <c r="C41" s="179"/>
-      <c r="D41" s="179"/>
-      <c r="E41" s="179"/>
-      <c r="F41" s="179"/>
-      <c r="G41" s="179"/>
-      <c r="H41" s="179"/>
-      <c r="I41" s="179"/>
-      <c r="J41" s="179"/>
-      <c r="K41" s="180"/>
+      <c r="C41" s="174"/>
+      <c r="D41" s="174"/>
+      <c r="E41" s="174"/>
+      <c r="F41" s="174"/>
+      <c r="G41" s="174"/>
+      <c r="H41" s="174"/>
+      <c r="I41" s="174"/>
+      <c r="J41" s="174"/>
+      <c r="K41" s="182"/>
       <c r="L41" s="27"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -3228,18 +3233,18 @@
       <c r="A53" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="B53" s="181" t="s">
+      <c r="B53" s="187" t="s">
         <v>154</v>
       </c>
-      <c r="C53" s="182"/>
-      <c r="D53" s="182"/>
-      <c r="E53" s="182"/>
-      <c r="F53" s="182"/>
-      <c r="G53" s="182"/>
-      <c r="H53" s="182"/>
-      <c r="I53" s="182"/>
-      <c r="J53" s="182"/>
-      <c r="K53" s="182"/>
+      <c r="C53" s="188"/>
+      <c r="D53" s="188"/>
+      <c r="E53" s="188"/>
+      <c r="F53" s="188"/>
+      <c r="G53" s="188"/>
+      <c r="H53" s="188"/>
+      <c r="I53" s="188"/>
+      <c r="J53" s="188"/>
+      <c r="K53" s="188"/>
       <c r="L53" s="102"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -3603,18 +3608,18 @@
       <c r="A69" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="B69" s="173" t="s">
+      <c r="B69" s="181" t="s">
         <v>84</v>
       </c>
-      <c r="C69" s="174"/>
-      <c r="D69" s="174"/>
-      <c r="E69" s="174"/>
-      <c r="F69" s="174"/>
-      <c r="G69" s="174"/>
-      <c r="H69" s="174"/>
-      <c r="I69" s="174"/>
-      <c r="J69" s="174"/>
-      <c r="K69" s="174"/>
+      <c r="C69" s="175"/>
+      <c r="D69" s="175"/>
+      <c r="E69" s="175"/>
+      <c r="F69" s="175"/>
+      <c r="G69" s="175"/>
+      <c r="H69" s="175"/>
+      <c r="I69" s="175"/>
+      <c r="J69" s="175"/>
+      <c r="K69" s="175"/>
       <c r="L69" s="26"/>
     </row>
     <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -3960,13 +3965,13 @@
     </row>
     <row r="83" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="27"/>
-      <c r="B83" s="183" t="s">
+      <c r="B83" s="189" t="s">
         <v>86</v>
       </c>
-      <c r="C83" s="184"/>
-      <c r="D83" s="184"/>
-      <c r="E83" s="184"/>
-      <c r="F83" s="184"/>
+      <c r="C83" s="190"/>
+      <c r="D83" s="190"/>
+      <c r="E83" s="190"/>
+      <c r="F83" s="190"/>
       <c r="G83" s="33">
         <f>K81</f>
         <v>2637.5560000000037</v>
@@ -4007,18 +4012,18 @@
     </row>
     <row r="85" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="27"/>
-      <c r="B85" s="185" t="s">
+      <c r="B85" s="191" t="s">
         <v>87</v>
       </c>
-      <c r="C85" s="186"/>
-      <c r="D85" s="186"/>
-      <c r="E85" s="186"/>
-      <c r="F85" s="186"/>
-      <c r="G85" s="186"/>
-      <c r="H85" s="186"/>
-      <c r="I85" s="186"/>
-      <c r="J85" s="186"/>
-      <c r="K85" s="186"/>
+      <c r="C85" s="192"/>
+      <c r="D85" s="192"/>
+      <c r="E85" s="192"/>
+      <c r="F85" s="192"/>
+      <c r="G85" s="192"/>
+      <c r="H85" s="192"/>
+      <c r="I85" s="192"/>
+      <c r="J85" s="192"/>
+      <c r="K85" s="192"/>
       <c r="L85" s="27"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -4063,18 +4068,18 @@
       <c r="A88" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="B88" s="173" t="s">
+      <c r="B88" s="181" t="s">
         <v>90</v>
       </c>
-      <c r="C88" s="174"/>
-      <c r="D88" s="174"/>
-      <c r="E88" s="174"/>
-      <c r="F88" s="174"/>
-      <c r="G88" s="174"/>
-      <c r="H88" s="174"/>
-      <c r="I88" s="174"/>
-      <c r="J88" s="174"/>
-      <c r="K88" s="174"/>
+      <c r="C88" s="175"/>
+      <c r="D88" s="175"/>
+      <c r="E88" s="175"/>
+      <c r="F88" s="175"/>
+      <c r="G88" s="175"/>
+      <c r="H88" s="175"/>
+      <c r="I88" s="175"/>
+      <c r="J88" s="175"/>
+      <c r="K88" s="175"/>
       <c r="L88" s="26"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -4441,10 +4446,10 @@
     </row>
     <row r="104" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="68"/>
-      <c r="B104" s="188" t="s">
+      <c r="B104" s="176" t="s">
         <v>99</v>
       </c>
-      <c r="C104" s="189"/>
+      <c r="C104" s="177"/>
       <c r="D104" s="30" t="s">
         <v>100</v>
       </c>
@@ -4546,11 +4551,11 @@
       <c r="A108" s="68"/>
       <c r="B108" s="109"/>
       <c r="C108" s="62"/>
-      <c r="D108" s="190" t="s">
+      <c r="D108" s="178" t="s">
         <v>101</v>
       </c>
-      <c r="E108" s="190"/>
-      <c r="F108" s="190"/>
+      <c r="E108" s="178"/>
+      <c r="F108" s="178"/>
       <c r="G108" s="64">
         <f>SUM(G105:G107)</f>
         <v>1681.0000000000027</v>
@@ -4565,10 +4570,10 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="68"/>
-      <c r="B109" s="188" t="s">
+      <c r="B109" s="176" t="s">
         <v>99</v>
       </c>
-      <c r="C109" s="189"/>
+      <c r="C109" s="177"/>
       <c r="D109" s="30" t="s">
         <v>161</v>
       </c>
@@ -4870,18 +4875,18 @@
       <c r="A122" s="126" t="s">
         <v>107</v>
       </c>
-      <c r="B122" s="191" t="s">
+      <c r="B122" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="C122" s="179"/>
-      <c r="D122" s="179"/>
-      <c r="E122" s="179"/>
-      <c r="F122" s="179"/>
-      <c r="G122" s="179"/>
-      <c r="H122" s="179"/>
-      <c r="I122" s="179"/>
-      <c r="J122" s="179"/>
-      <c r="K122" s="192"/>
+      <c r="C122" s="174"/>
+      <c r="D122" s="174"/>
+      <c r="E122" s="174"/>
+      <c r="F122" s="174"/>
+      <c r="G122" s="174"/>
+      <c r="H122" s="174"/>
+      <c r="I122" s="174"/>
+      <c r="J122" s="174"/>
+      <c r="K122" s="180"/>
       <c r="L122" s="27"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
@@ -5178,34 +5183,34 @@
       <c r="A136" s="107" t="s">
         <v>113</v>
       </c>
-      <c r="B136" s="173" t="s">
+      <c r="B136" s="181" t="s">
         <v>146</v>
       </c>
-      <c r="C136" s="179"/>
-      <c r="D136" s="179"/>
-      <c r="E136" s="179"/>
-      <c r="F136" s="179"/>
-      <c r="G136" s="179"/>
-      <c r="H136" s="179"/>
-      <c r="I136" s="179"/>
-      <c r="J136" s="179"/>
-      <c r="K136" s="180"/>
+      <c r="C136" s="174"/>
+      <c r="D136" s="174"/>
+      <c r="E136" s="174"/>
+      <c r="F136" s="174"/>
+      <c r="G136" s="174"/>
+      <c r="H136" s="174"/>
+      <c r="I136" s="174"/>
+      <c r="J136" s="174"/>
+      <c r="K136" s="182"/>
       <c r="L136" s="133"/>
     </row>
     <row r="137" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="133"/>
-      <c r="B137" s="191" t="s">
+      <c r="B137" s="179" t="s">
         <v>127</v>
       </c>
-      <c r="C137" s="176"/>
-      <c r="D137" s="176"/>
-      <c r="E137" s="176"/>
-      <c r="F137" s="176"/>
-      <c r="G137" s="176"/>
-      <c r="H137" s="176"/>
-      <c r="I137" s="176"/>
-      <c r="J137" s="176"/>
-      <c r="K137" s="192"/>
+      <c r="C137" s="183"/>
+      <c r="D137" s="183"/>
+      <c r="E137" s="183"/>
+      <c r="F137" s="183"/>
+      <c r="G137" s="183"/>
+      <c r="H137" s="183"/>
+      <c r="I137" s="183"/>
+      <c r="J137" s="183"/>
+      <c r="K137" s="180"/>
       <c r="L137" s="133"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
@@ -5527,18 +5532,18 @@
       <c r="A155" s="107" t="s">
         <v>119</v>
       </c>
-      <c r="B155" s="179" t="s">
+      <c r="B155" s="174" t="s">
         <v>126</v>
       </c>
-      <c r="C155" s="174"/>
-      <c r="D155" s="174"/>
-      <c r="E155" s="174"/>
-      <c r="F155" s="174"/>
-      <c r="G155" s="174"/>
-      <c r="H155" s="174"/>
-      <c r="I155" s="174"/>
-      <c r="J155" s="174"/>
-      <c r="K155" s="174"/>
+      <c r="C155" s="175"/>
+      <c r="D155" s="175"/>
+      <c r="E155" s="175"/>
+      <c r="F155" s="175"/>
+      <c r="G155" s="175"/>
+      <c r="H155" s="175"/>
+      <c r="I155" s="175"/>
+      <c r="J155" s="175"/>
+      <c r="K155" s="175"/>
       <c r="L155" s="26"/>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
@@ -5662,11 +5667,11 @@
       <c r="A161" s="68"/>
       <c r="B161" s="109"/>
       <c r="C161" s="62"/>
-      <c r="D161" s="187" t="s">
+      <c r="D161" s="173" t="s">
         <v>101</v>
       </c>
-      <c r="E161" s="187"/>
-      <c r="F161" s="187"/>
+      <c r="E161" s="173"/>
+      <c r="F161" s="173"/>
       <c r="G161" s="64">
         <f>SUM(G158:G160)</f>
         <v>1681.0000000000027</v>
@@ -5768,18 +5773,18 @@
       <c r="A166" s="107" t="s">
         <v>122</v>
       </c>
-      <c r="B166" s="179" t="s">
+      <c r="B166" s="174" t="s">
         <v>157</v>
       </c>
-      <c r="C166" s="174"/>
-      <c r="D166" s="174"/>
-      <c r="E166" s="174"/>
-      <c r="F166" s="174"/>
-      <c r="G166" s="174"/>
-      <c r="H166" s="174"/>
-      <c r="I166" s="174"/>
-      <c r="J166" s="174"/>
-      <c r="K166" s="174"/>
+      <c r="C166" s="175"/>
+      <c r="D166" s="175"/>
+      <c r="E166" s="175"/>
+      <c r="F166" s="175"/>
+      <c r="G166" s="175"/>
+      <c r="H166" s="175"/>
+      <c r="I166" s="175"/>
+      <c r="J166" s="175"/>
+      <c r="K166" s="175"/>
       <c r="L166" s="26"/>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
@@ -5912,15 +5917,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D161:F161"/>
-    <mergeCell ref="B166:K166"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="D108:F108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B122:K122"/>
-    <mergeCell ref="B136:K136"/>
-    <mergeCell ref="B155:K155"/>
-    <mergeCell ref="B137:K137"/>
     <mergeCell ref="B88:K88"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="B2:I2"/>
@@ -5933,6 +5929,15 @@
     <mergeCell ref="B69:K69"/>
     <mergeCell ref="B83:F83"/>
     <mergeCell ref="B85:K85"/>
+    <mergeCell ref="D161:F161"/>
+    <mergeCell ref="B166:K166"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B122:K122"/>
+    <mergeCell ref="B136:K136"/>
+    <mergeCell ref="B155:K155"/>
+    <mergeCell ref="B137:K137"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5944,8 +5949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Civilworks cost/Protective Work Latest/Flood Fuse -14 (For Working)-2/Pac-30/Noagan Part-A -Pac-30.xlsx
+++ b/Civilworks cost/Protective Work Latest/Flood Fuse -14 (For Working)-2/Pac-30/Noagan Part-A -Pac-30.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\cmis6\Civilworks cost\Protective Work Latest\Flood Fuse -14 (For Working)-2\Pac-30\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Website_24_11_2020\cmis6\cmis6\Civilworks cost\Protective Work Latest\Flood Fuse -14 (For Working)-2\Pac-30\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Detail" sheetId="4" r:id="rId1"/>
@@ -1088,12 +1088,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="15">
@@ -1265,7 +1271,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1661,15 +1667,54 @@
     <xf numFmtId="2" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1685,47 +1730,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2035,80 +2047,80 @@
   <dimension ref="A1:O172"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="112" zoomScaleNormal="115" zoomScaleSheetLayoutView="112" workbookViewId="0">
-      <selection activeCell="N166" sqref="N166"/>
+      <selection activeCell="A3" sqref="A3:K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="8" width="7.85546875" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" customWidth="1"/>
+    <col min="7" max="8" width="7.88671875" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="184" t="s">
+    <row r="1" spans="1:15" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="176" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="183"/>
-      <c r="L1" s="183"/>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="177"/>
+      <c r="L1" s="177"/>
       <c r="O1" s="25"/>
     </row>
-    <row r="2" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="185" t="s">
+      <c r="B2" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="179"/>
+      <c r="H2" s="179"/>
+      <c r="I2" s="179"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
       <c r="L2" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="181" t="s">
+      <c r="B3" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="174"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="174"/>
-      <c r="H3" s="174"/>
-      <c r="I3" s="174"/>
-      <c r="J3" s="174"/>
-      <c r="K3" s="182"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="181"/>
       <c r="L3" s="26"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="27"/>
       <c r="B4" s="28" t="s">
         <v>38</v>
@@ -2124,7 +2136,7 @@
       <c r="K4" s="11"/>
       <c r="L4" s="27"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="27"/>
       <c r="B5" s="31" t="s">
         <v>39</v>
@@ -2140,7 +2152,7 @@
       <c r="K5" s="11"/>
       <c r="L5" s="27"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="27"/>
       <c r="B6" s="32" t="s">
         <v>40</v>
@@ -2169,7 +2181,7 @@
       <c r="K6" s="11"/>
       <c r="L6" s="27"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="27"/>
       <c r="B7" s="32" t="s">
         <v>40</v>
@@ -2198,7 +2210,7 @@
       <c r="K7" s="11"/>
       <c r="L7" s="27"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="36"/>
       <c r="B8" s="32" t="s">
         <v>40</v>
@@ -2225,7 +2237,7 @@
       <c r="K8" s="11"/>
       <c r="L8" s="27"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="36"/>
       <c r="B9" s="32"/>
       <c r="C9" s="33"/>
@@ -2246,7 +2258,7 @@
       <c r="K9" s="11"/>
       <c r="L9" s="27"/>
     </row>
-    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="36"/>
       <c r="B10" s="31" t="s">
         <v>159</v>
@@ -2262,7 +2274,7 @@
       <c r="K10" s="11"/>
       <c r="L10" s="27"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="36"/>
       <c r="B11" s="32" t="s">
         <v>40</v>
@@ -2291,7 +2303,7 @@
       <c r="K11" s="11"/>
       <c r="L11" s="27"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="36"/>
       <c r="B12" s="32"/>
       <c r="C12" s="33"/>
@@ -2310,7 +2322,7 @@
       <c r="K12" s="11"/>
       <c r="L12" s="27"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="32"/>
       <c r="C13" s="33"/>
@@ -2329,7 +2341,7 @@
       <c r="K13" s="11"/>
       <c r="L13" s="27"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="27"/>
       <c r="B14" s="42" t="s">
         <v>48</v>
@@ -2366,7 +2378,7 @@
         <v>85.366666666666731</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="50"/>
       <c r="B15" s="28"/>
       <c r="C15" s="29"/>
@@ -2382,25 +2394,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="151.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="181" t="s">
+      <c r="B16" s="174" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="174"/>
-      <c r="D16" s="174"/>
-      <c r="E16" s="174"/>
-      <c r="F16" s="174"/>
-      <c r="G16" s="174"/>
-      <c r="H16" s="174"/>
-      <c r="I16" s="174"/>
-      <c r="J16" s="174"/>
-      <c r="K16" s="182"/>
+      <c r="C16" s="180"/>
+      <c r="D16" s="180"/>
+      <c r="E16" s="180"/>
+      <c r="F16" s="180"/>
+      <c r="G16" s="180"/>
+      <c r="H16" s="180"/>
+      <c r="I16" s="180"/>
+      <c r="J16" s="180"/>
+      <c r="K16" s="181"/>
       <c r="L16" s="27"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="27"/>
       <c r="B17" s="55" t="s">
         <v>55</v>
@@ -2415,7 +2427,7 @@
       <c r="J17" s="30"/>
       <c r="L17" s="27"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="27"/>
       <c r="B18" s="146" t="s">
         <v>40</v>
@@ -2443,7 +2455,7 @@
       <c r="J18" s="30"/>
       <c r="L18" s="27"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="27"/>
       <c r="B19" s="30" t="s">
         <v>56</v>
@@ -2459,7 +2471,7 @@
       <c r="J19" s="30"/>
       <c r="L19" s="27"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="27"/>
       <c r="B20" s="55" t="s">
         <v>58</v>
@@ -2492,7 +2504,7 @@
       </c>
       <c r="L20" s="27"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="27"/>
       <c r="B21" s="61" t="s">
         <v>40</v>
@@ -2521,7 +2533,7 @@
       <c r="K21" s="65"/>
       <c r="L21" s="27"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="27"/>
       <c r="B22" s="61" t="s">
         <v>40</v>
@@ -2548,7 +2560,7 @@
       <c r="K22" s="65"/>
       <c r="L22" s="27"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="27"/>
       <c r="B23" s="63"/>
       <c r="C23" s="62"/>
@@ -2567,7 +2579,7 @@
       <c r="K23" s="65"/>
       <c r="L23" s="27"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="27"/>
       <c r="B24" s="30" t="s">
         <v>56</v>
@@ -2584,7 +2596,7 @@
       <c r="K24" s="65"/>
       <c r="L24" s="27"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="27"/>
       <c r="B25" s="55" t="s">
         <v>58</v>
@@ -2617,7 +2629,7 @@
       </c>
       <c r="L25" s="67"/>
     </row>
-    <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="68"/>
       <c r="B26" s="31" t="s">
         <v>160</v>
@@ -2633,7 +2645,7 @@
       <c r="K26" s="65"/>
       <c r="L26" s="27"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="68"/>
       <c r="B27" s="69"/>
       <c r="C27" s="70"/>
@@ -2647,7 +2659,7 @@
       <c r="K27" s="65"/>
       <c r="L27" s="27"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="68"/>
       <c r="B28" s="140" t="s">
         <v>40</v>
@@ -2676,7 +2688,7 @@
       <c r="K28" s="65"/>
       <c r="L28" s="27"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="68"/>
       <c r="B29" s="144" t="s">
         <v>56</v>
@@ -2693,7 +2705,7 @@
       <c r="K29" s="65"/>
       <c r="L29" s="27"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="78"/>
       <c r="B30" s="55" t="s">
         <v>58</v>
@@ -2726,7 +2738,7 @@
       </c>
       <c r="L30" s="65"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="78"/>
       <c r="B31" s="55" t="s">
         <v>66</v>
@@ -2759,7 +2771,7 @@
       </c>
       <c r="L31" s="60"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="68"/>
       <c r="B32" s="55"/>
       <c r="C32" s="56"/>
@@ -2778,7 +2790,7 @@
       </c>
       <c r="L32" s="27"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="68"/>
       <c r="B33" s="36" t="s">
         <v>68</v>
@@ -2811,7 +2823,7 @@
         <v>17903.200000000019</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="87"/>
       <c r="B34" s="88"/>
       <c r="C34" s="52"/>
@@ -2827,25 +2839,25 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="163.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="181" t="s">
+      <c r="B35" s="174" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="174"/>
-      <c r="D35" s="174"/>
-      <c r="E35" s="174"/>
-      <c r="F35" s="174"/>
-      <c r="G35" s="174"/>
-      <c r="H35" s="174"/>
-      <c r="I35" s="174"/>
-      <c r="J35" s="174"/>
-      <c r="K35" s="182"/>
+      <c r="C35" s="180"/>
+      <c r="D35" s="180"/>
+      <c r="E35" s="180"/>
+      <c r="F35" s="180"/>
+      <c r="G35" s="180"/>
+      <c r="H35" s="180"/>
+      <c r="I35" s="180"/>
+      <c r="J35" s="180"/>
+      <c r="K35" s="181"/>
       <c r="L35" s="27"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="68"/>
       <c r="B36" s="78"/>
       <c r="C36" s="30" t="s">
@@ -2867,7 +2879,7 @@
         <v>17903.200000000019</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="87"/>
       <c r="B37" s="88"/>
       <c r="C37" s="52"/>
@@ -2883,25 +2895,25 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="181" t="s">
+      <c r="B38" s="174" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="174"/>
-      <c r="D38" s="174"/>
-      <c r="E38" s="174"/>
-      <c r="F38" s="174"/>
-      <c r="G38" s="174"/>
-      <c r="H38" s="174"/>
-      <c r="I38" s="174"/>
-      <c r="J38" s="174"/>
-      <c r="K38" s="182"/>
+      <c r="C38" s="180"/>
+      <c r="D38" s="180"/>
+      <c r="E38" s="180"/>
+      <c r="F38" s="180"/>
+      <c r="G38" s="180"/>
+      <c r="H38" s="180"/>
+      <c r="I38" s="180"/>
+      <c r="J38" s="180"/>
+      <c r="K38" s="181"/>
       <c r="L38" s="27"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="27"/>
       <c r="B39" s="78"/>
       <c r="C39" s="30" t="s">
@@ -2923,7 +2935,7 @@
         <v>17903.200000000019</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="50"/>
       <c r="B40" s="88"/>
       <c r="C40" s="52"/>
@@ -2939,25 +2951,25 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="181" t="s">
+      <c r="B41" s="174" t="s">
         <v>129</v>
       </c>
-      <c r="C41" s="174"/>
-      <c r="D41" s="174"/>
-      <c r="E41" s="174"/>
-      <c r="F41" s="174"/>
-      <c r="G41" s="174"/>
-      <c r="H41" s="174"/>
-      <c r="I41" s="174"/>
-      <c r="J41" s="174"/>
-      <c r="K41" s="182"/>
+      <c r="C41" s="180"/>
+      <c r="D41" s="180"/>
+      <c r="E41" s="180"/>
+      <c r="F41" s="180"/>
+      <c r="G41" s="180"/>
+      <c r="H41" s="180"/>
+      <c r="I41" s="180"/>
+      <c r="J41" s="180"/>
+      <c r="K41" s="181"/>
       <c r="L41" s="27"/>
     </row>
-    <row r="42" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="68"/>
       <c r="B42" s="31" t="s">
         <v>55</v>
@@ -2973,7 +2985,7 @@
       <c r="K42" s="90"/>
       <c r="L42" s="27"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="68"/>
       <c r="B43" s="32" t="s">
         <v>40</v>
@@ -3002,7 +3014,7 @@
       <c r="K43" s="90"/>
       <c r="L43" s="27"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="68"/>
       <c r="B44" s="36" t="s">
         <v>75</v>
@@ -3022,7 +3034,7 @@
       <c r="K44" s="65"/>
       <c r="L44" s="27"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="68"/>
       <c r="B45" s="36" t="s">
         <v>76</v>
@@ -3058,7 +3070,7 @@
       </c>
       <c r="L45" s="27"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="68"/>
       <c r="B46" s="61" t="s">
         <v>40</v>
@@ -3087,7 +3099,7 @@
       <c r="K46" s="90"/>
       <c r="L46" s="27"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="68"/>
       <c r="B47" s="61" t="s">
         <v>40</v>
@@ -3114,7 +3126,7 @@
       <c r="K47" s="90"/>
       <c r="L47" s="27"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="68"/>
       <c r="B48" s="63"/>
       <c r="C48" s="62"/>
@@ -3133,7 +3145,7 @@
       <c r="K48" s="90"/>
       <c r="L48" s="27"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="68"/>
       <c r="B49" s="36" t="s">
         <v>77</v>
@@ -3153,7 +3165,7 @@
       <c r="K49" s="65"/>
       <c r="L49" s="27"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="68"/>
       <c r="B50" s="36" t="s">
         <v>76</v>
@@ -3189,7 +3201,7 @@
       </c>
       <c r="L50" s="27"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="68"/>
       <c r="B51" s="36"/>
       <c r="C51" s="34"/>
@@ -3211,7 +3223,7 @@
         <v>2414.8460000000036</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="87"/>
       <c r="B52" s="99"/>
       <c r="C52" s="38"/>
@@ -3229,25 +3241,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="199.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="B53" s="187" t="s">
+      <c r="B53" s="182" t="s">
         <v>154</v>
       </c>
-      <c r="C53" s="188"/>
-      <c r="D53" s="188"/>
-      <c r="E53" s="188"/>
-      <c r="F53" s="188"/>
-      <c r="G53" s="188"/>
-      <c r="H53" s="188"/>
-      <c r="I53" s="188"/>
-      <c r="J53" s="188"/>
-      <c r="K53" s="188"/>
+      <c r="C53" s="183"/>
+      <c r="D53" s="183"/>
+      <c r="E53" s="183"/>
+      <c r="F53" s="183"/>
+      <c r="G53" s="183"/>
+      <c r="H53" s="183"/>
+      <c r="I53" s="183"/>
+      <c r="J53" s="183"/>
+      <c r="K53" s="183"/>
       <c r="L53" s="102"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="68"/>
       <c r="B54" s="55" t="s">
         <v>55</v>
@@ -3263,7 +3275,7 @@
       <c r="K54" s="30"/>
       <c r="L54" s="27"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="68"/>
       <c r="B55" s="32" t="s">
         <v>40</v>
@@ -3292,7 +3304,7 @@
       <c r="K55" s="30"/>
       <c r="L55" s="27"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="68"/>
       <c r="B56" s="36" t="s">
         <v>79</v>
@@ -3312,7 +3324,7 @@
       <c r="K56" s="30"/>
       <c r="L56" s="27"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="68"/>
       <c r="B57" s="36" t="s">
         <v>80</v>
@@ -3343,7 +3355,7 @@
       </c>
       <c r="L57" s="27"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="68"/>
       <c r="B58" s="61" t="s">
         <v>40</v>
@@ -3372,7 +3384,7 @@
       <c r="K58" s="30"/>
       <c r="L58" s="27"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="68"/>
       <c r="B59" s="61" t="s">
         <v>40</v>
@@ -3399,7 +3411,7 @@
       <c r="K59" s="30"/>
       <c r="L59" s="27"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="68"/>
       <c r="B60" s="63"/>
       <c r="C60" s="62"/>
@@ -3418,7 +3430,7 @@
       <c r="K60" s="30"/>
       <c r="L60" s="27"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="68"/>
       <c r="B61" s="36" t="s">
         <v>81</v>
@@ -3438,7 +3450,7 @@
       <c r="K61" s="30"/>
       <c r="L61" s="27"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="68"/>
       <c r="B62" s="36" t="s">
         <v>80</v>
@@ -3469,7 +3481,7 @@
       </c>
       <c r="L62" s="27"/>
     </row>
-    <row r="63" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="68"/>
       <c r="B63" s="31" t="s">
         <v>160</v>
@@ -3485,7 +3497,7 @@
       <c r="K63" s="30"/>
       <c r="L63" s="27"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="68"/>
       <c r="B64" s="32" t="s">
         <v>40</v>
@@ -3514,7 +3526,7 @@
       <c r="K64" s="30"/>
       <c r="L64" s="27"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="68"/>
       <c r="B65" s="36" t="s">
         <v>82</v>
@@ -3534,7 +3546,7 @@
       <c r="K65" s="30"/>
       <c r="L65" s="27"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="68"/>
       <c r="B66" s="36" t="s">
         <v>80</v>
@@ -3565,7 +3577,7 @@
       </c>
       <c r="L66" s="27"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="68"/>
       <c r="B67" s="36"/>
       <c r="C67" s="30"/>
@@ -3588,7 +3600,7 @@
         <v>37638.560000000027</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="87"/>
       <c r="B68" s="88"/>
       <c r="C68" s="52"/>
@@ -3604,11 +3616,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="B69" s="181" t="s">
+      <c r="B69" s="174" t="s">
         <v>84</v>
       </c>
       <c r="C69" s="175"/>
@@ -3622,7 +3634,7 @@
       <c r="K69" s="175"/>
       <c r="L69" s="26"/>
     </row>
-    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="27"/>
       <c r="B70" s="31" t="s">
         <v>55</v>
@@ -3638,7 +3650,7 @@
       <c r="K70" s="90"/>
       <c r="L70" s="27"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="36"/>
       <c r="B71" s="166" t="s">
         <v>40</v>
@@ -3667,7 +3679,7 @@
       <c r="K71" s="90"/>
       <c r="L71" s="27"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="27"/>
       <c r="B72" s="168" t="s">
         <v>155</v>
@@ -3687,7 +3699,7 @@
       <c r="K72" s="65"/>
       <c r="L72" s="27"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="27"/>
       <c r="B73" s="168" t="s">
         <v>76</v>
@@ -3723,7 +3735,7 @@
       </c>
       <c r="L73" s="27"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="27"/>
       <c r="B74" s="169" t="s">
         <v>85</v>
@@ -3758,7 +3770,7 @@
       </c>
       <c r="L74" s="27"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="27"/>
       <c r="B75" s="140" t="s">
         <v>40</v>
@@ -3787,7 +3799,7 @@
       <c r="K75" s="91"/>
       <c r="L75" s="27"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="27"/>
       <c r="B76" s="140" t="s">
         <v>40</v>
@@ -3814,7 +3826,7 @@
       <c r="K76" s="91"/>
       <c r="L76" s="27"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="27"/>
       <c r="B77" s="142"/>
       <c r="C77" s="141"/>
@@ -3833,7 +3845,7 @@
       <c r="K77" s="91"/>
       <c r="L77" s="27"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="27"/>
       <c r="B78" s="168" t="s">
         <v>156</v>
@@ -3853,7 +3865,7 @@
       <c r="K78" s="65"/>
       <c r="L78" s="27"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="27"/>
       <c r="B79" s="36" t="s">
         <v>76</v>
@@ -3890,7 +3902,7 @@
       </c>
       <c r="L79" s="27"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="27"/>
       <c r="B80" s="78" t="s">
         <v>85</v>
@@ -3926,7 +3938,7 @@
       </c>
       <c r="L80" s="27"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="36"/>
       <c r="B81" s="36"/>
       <c r="C81" s="34"/>
@@ -3947,7 +3959,7 @@
       </c>
       <c r="L81" s="27"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="36"/>
       <c r="B82" s="99"/>
       <c r="C82" s="38"/>
@@ -3963,15 +3975,15 @@
       </c>
       <c r="L82" s="27"/>
     </row>
-    <row r="83" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="27"/>
-      <c r="B83" s="189" t="s">
+      <c r="B83" s="184" t="s">
         <v>86</v>
       </c>
-      <c r="C83" s="190"/>
-      <c r="D83" s="190"/>
-      <c r="E83" s="190"/>
-      <c r="F83" s="190"/>
+      <c r="C83" s="185"/>
+      <c r="D83" s="185"/>
+      <c r="E83" s="185"/>
+      <c r="F83" s="185"/>
       <c r="G83" s="33">
         <f>K81</f>
         <v>2637.5560000000037</v>
@@ -3994,7 +4006,7 @@
         <v>1318.7780000000018</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="50"/>
       <c r="B84" s="38"/>
       <c r="C84" s="38"/>
@@ -4010,23 +4022,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="27"/>
-      <c r="B85" s="191" t="s">
+      <c r="B85" s="186" t="s">
         <v>87</v>
       </c>
-      <c r="C85" s="192"/>
-      <c r="D85" s="192"/>
-      <c r="E85" s="192"/>
-      <c r="F85" s="192"/>
-      <c r="G85" s="192"/>
-      <c r="H85" s="192"/>
-      <c r="I85" s="192"/>
-      <c r="J85" s="192"/>
-      <c r="K85" s="192"/>
+      <c r="C85" s="187"/>
+      <c r="D85" s="187"/>
+      <c r="E85" s="187"/>
+      <c r="F85" s="187"/>
+      <c r="G85" s="187"/>
+      <c r="H85" s="187"/>
+      <c r="I85" s="187"/>
+      <c r="J85" s="187"/>
+      <c r="K85" s="187"/>
       <c r="L85" s="27"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="27"/>
       <c r="B86" s="73"/>
       <c r="C86" s="73" t="s">
@@ -4048,7 +4060,7 @@
         <v>1318.7780000000018</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="27"/>
       <c r="B87" s="73"/>
       <c r="C87" s="73"/>
@@ -4064,11 +4076,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="B88" s="181" t="s">
+      <c r="B88" s="174" t="s">
         <v>90</v>
       </c>
       <c r="C88" s="175"/>
@@ -4082,7 +4094,7 @@
       <c r="K88" s="175"/>
       <c r="L88" s="26"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="68"/>
       <c r="B89" s="55" t="s">
         <v>55</v>
@@ -4098,7 +4110,7 @@
       <c r="K89" s="73"/>
       <c r="L89" s="27"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="68"/>
       <c r="B90" s="61" t="s">
         <v>40</v>
@@ -4127,7 +4139,7 @@
       <c r="K90" s="73"/>
       <c r="L90" s="27"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="68"/>
       <c r="B91" s="36" t="s">
         <v>80</v>
@@ -4157,7 +4169,7 @@
       <c r="K91" s="73"/>
       <c r="L91" s="27"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="68"/>
       <c r="B92" s="61" t="s">
         <v>40</v>
@@ -4186,7 +4198,7 @@
       <c r="K92" s="73"/>
       <c r="L92" s="27"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="68"/>
       <c r="B93" s="61" t="s">
         <v>40</v>
@@ -4213,7 +4225,7 @@
       <c r="K93" s="73"/>
       <c r="L93" s="27"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="68"/>
       <c r="B94" s="63"/>
       <c r="C94" s="62"/>
@@ -4232,7 +4244,7 @@
       <c r="K94" s="73"/>
       <c r="L94" s="27"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="68"/>
       <c r="B95" s="36" t="s">
         <v>80</v>
@@ -4262,7 +4274,7 @@
       <c r="K95" s="73"/>
       <c r="L95" s="27"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="68"/>
       <c r="B96" s="30"/>
       <c r="C96" s="34"/>
@@ -4283,7 +4295,7 @@
       <c r="K96" s="73"/>
       <c r="L96" s="27"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="68"/>
       <c r="B97" s="30" t="s">
         <v>91</v>
@@ -4311,7 +4323,7 @@
       <c r="K97" s="30"/>
       <c r="L97" s="27"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="68"/>
       <c r="B98" s="40" t="s">
         <v>92</v>
@@ -4342,7 +4354,7 @@
       <c r="K98" s="65"/>
       <c r="L98" s="27"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="68"/>
       <c r="B99" s="29" t="s">
         <v>93</v>
@@ -4373,7 +4385,7 @@
         <v>156604.88750000024</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="87"/>
       <c r="B100" s="28"/>
       <c r="C100" s="29"/>
@@ -4396,7 +4408,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="68"/>
       <c r="B101" s="119" t="s">
         <v>97</v>
@@ -4412,7 +4424,7 @@
       <c r="K101" s="65"/>
       <c r="L101" s="27"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="68"/>
       <c r="B102" s="120" t="s">
         <v>55</v>
@@ -4428,7 +4440,7 @@
       <c r="K102" s="65"/>
       <c r="L102" s="27"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="68"/>
       <c r="B103" s="36" t="s">
         <v>98</v>
@@ -4444,12 +4456,12 @@
       <c r="K103" s="65"/>
       <c r="L103" s="27"/>
     </row>
-    <row r="104" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="68"/>
-      <c r="B104" s="176" t="s">
+      <c r="B104" s="189" t="s">
         <v>99</v>
       </c>
-      <c r="C104" s="177"/>
+      <c r="C104" s="190"/>
       <c r="D104" s="30" t="s">
         <v>100</v>
       </c>
@@ -4462,7 +4474,7 @@
       <c r="K104" s="65"/>
       <c r="L104" s="27"/>
     </row>
-    <row r="105" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="68"/>
       <c r="B105" s="61" t="s">
         <v>40</v>
@@ -4491,7 +4503,7 @@
       <c r="K105" s="65"/>
       <c r="L105" s="27"/>
     </row>
-    <row r="106" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="68"/>
       <c r="B106" s="61" t="s">
         <v>40</v>
@@ -4520,7 +4532,7 @@
       <c r="K106" s="65"/>
       <c r="L106" s="27"/>
     </row>
-    <row r="107" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="68"/>
       <c r="B107" s="61" t="s">
         <v>40</v>
@@ -4547,15 +4559,15 @@
       <c r="K107" s="65"/>
       <c r="L107" s="27"/>
     </row>
-    <row r="108" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="68"/>
       <c r="B108" s="109"/>
       <c r="C108" s="62"/>
-      <c r="D108" s="178" t="s">
+      <c r="D108" s="191" t="s">
         <v>101</v>
       </c>
-      <c r="E108" s="178"/>
-      <c r="F108" s="178"/>
+      <c r="E108" s="191"/>
+      <c r="F108" s="191"/>
       <c r="G108" s="64">
         <f>SUM(G105:G107)</f>
         <v>1681.0000000000027</v>
@@ -4568,12 +4580,12 @@
       <c r="K108" s="65"/>
       <c r="L108" s="27"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="68"/>
-      <c r="B109" s="176" t="s">
+      <c r="B109" s="189" t="s">
         <v>99</v>
       </c>
-      <c r="C109" s="177"/>
+      <c r="C109" s="190"/>
       <c r="D109" s="30" t="s">
         <v>161</v>
       </c>
@@ -4586,7 +4598,7 @@
       <c r="K109" s="65"/>
       <c r="L109" s="27"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="68"/>
       <c r="B110" s="61" t="s">
         <v>40</v>
@@ -4614,7 +4626,7 @@
       <c r="K110" s="65"/>
       <c r="L110" s="27"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="68"/>
       <c r="B111" s="94"/>
       <c r="C111" s="95"/>
@@ -4633,7 +4645,7 @@
       <c r="K111" s="65"/>
       <c r="L111" s="27"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="68"/>
       <c r="B112" s="36" t="s">
         <v>102</v>
@@ -4649,7 +4661,7 @@
       <c r="K112" s="65"/>
       <c r="L112" s="27"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="78"/>
       <c r="B113" s="36">
         <v>2</v>
@@ -4685,7 +4697,7 @@
       </c>
       <c r="L113" s="65"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="68"/>
       <c r="B114" s="29" t="s">
         <v>93</v>
@@ -4716,7 +4728,7 @@
         <v>53231.666666666759</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="87"/>
       <c r="B115" s="121"/>
       <c r="C115" s="122"/>
@@ -4740,7 +4752,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="68"/>
       <c r="B116" s="119" t="s">
         <v>103</v>
@@ -4756,7 +4768,7 @@
       <c r="K116" s="96"/>
       <c r="L116" s="96"/>
     </row>
-    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="68"/>
       <c r="B117" s="124" t="s">
         <v>162</v>
@@ -4772,7 +4784,7 @@
       <c r="K117" s="96"/>
       <c r="L117" s="96"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="68"/>
       <c r="B118" s="61" t="s">
         <v>40</v>
@@ -4798,7 +4810,7 @@
       <c r="K118" s="96"/>
       <c r="L118" s="96"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="68"/>
       <c r="B119" s="76"/>
       <c r="C119" s="66"/>
@@ -4819,7 +4831,7 @@
       <c r="K119" s="96"/>
       <c r="L119" s="96"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="68"/>
       <c r="B120" s="36" t="s">
         <v>104</v>
@@ -4855,7 +4867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="87"/>
       <c r="B121" s="28"/>
       <c r="C121" s="30"/>
@@ -4871,25 +4883,25 @@
         <v>96</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="126" t="s">
         <v>107</v>
       </c>
-      <c r="B122" s="179" t="s">
+      <c r="B122" s="192" t="s">
         <v>21</v>
       </c>
-      <c r="C122" s="174"/>
-      <c r="D122" s="174"/>
-      <c r="E122" s="174"/>
-      <c r="F122" s="174"/>
-      <c r="G122" s="174"/>
-      <c r="H122" s="174"/>
-      <c r="I122" s="174"/>
-      <c r="J122" s="174"/>
-      <c r="K122" s="180"/>
+      <c r="C122" s="180"/>
+      <c r="D122" s="180"/>
+      <c r="E122" s="180"/>
+      <c r="F122" s="180"/>
+      <c r="G122" s="180"/>
+      <c r="H122" s="180"/>
+      <c r="I122" s="180"/>
+      <c r="J122" s="180"/>
+      <c r="K122" s="193"/>
       <c r="L122" s="27"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="68"/>
       <c r="B123" s="76"/>
       <c r="C123" s="66" t="s">
@@ -4905,7 +4917,7 @@
       <c r="K123" s="96"/>
       <c r="L123" s="27"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="68"/>
       <c r="B124" s="36"/>
       <c r="C124" s="114">
@@ -4939,7 +4951,7 @@
       </c>
       <c r="L124" s="27"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="68"/>
       <c r="B125" s="127"/>
       <c r="C125" s="66" t="s">
@@ -4955,7 +4967,7 @@
       <c r="K125" s="98"/>
       <c r="L125" s="27"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="68"/>
       <c r="B126" s="36"/>
       <c r="C126" s="114">
@@ -4989,7 +5001,7 @@
       </c>
       <c r="L126" s="27"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="68"/>
       <c r="B127" s="127"/>
       <c r="C127" s="66" t="s">
@@ -5005,7 +5017,7 @@
       <c r="K127" s="98"/>
       <c r="L127" s="27"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="68"/>
       <c r="B128" s="28"/>
       <c r="C128" s="116">
@@ -5039,7 +5051,7 @@
       </c>
       <c r="L128" s="27"/>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="78"/>
       <c r="B129" s="129"/>
       <c r="C129" s="130"/>
@@ -5058,7 +5070,7 @@
       </c>
       <c r="L129" s="65"/>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="78"/>
       <c r="B130" s="36"/>
       <c r="C130" s="30"/>
@@ -5074,7 +5086,7 @@
       </c>
       <c r="L130" s="65"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="78"/>
       <c r="B131" s="36" t="s">
         <v>111</v>
@@ -5105,7 +5117,7 @@
         <v>3224.3057000000053</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="87"/>
       <c r="B132" s="88"/>
       <c r="C132" s="52"/>
@@ -5123,7 +5135,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="68"/>
       <c r="B133" s="36" t="s">
         <v>22</v>
@@ -5139,7 +5151,7 @@
       <c r="K133" s="65"/>
       <c r="L133" s="27"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="68"/>
       <c r="B134" s="36"/>
       <c r="C134" s="30" t="s">
@@ -5163,7 +5175,7 @@
         <v>3224.3057000000053</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="87"/>
       <c r="B135" s="28"/>
       <c r="C135" s="29"/>
@@ -5179,41 +5191,41 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="159" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" ht="159" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="107" t="s">
         <v>113</v>
       </c>
-      <c r="B136" s="181" t="s">
+      <c r="B136" s="174" t="s">
         <v>146</v>
       </c>
-      <c r="C136" s="174"/>
-      <c r="D136" s="174"/>
-      <c r="E136" s="174"/>
-      <c r="F136" s="174"/>
-      <c r="G136" s="174"/>
-      <c r="H136" s="174"/>
-      <c r="I136" s="174"/>
-      <c r="J136" s="174"/>
-      <c r="K136" s="182"/>
+      <c r="C136" s="180"/>
+      <c r="D136" s="180"/>
+      <c r="E136" s="180"/>
+      <c r="F136" s="180"/>
+      <c r="G136" s="180"/>
+      <c r="H136" s="180"/>
+      <c r="I136" s="180"/>
+      <c r="J136" s="180"/>
+      <c r="K136" s="181"/>
       <c r="L136" s="133"/>
     </row>
-    <row r="137" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="133"/>
-      <c r="B137" s="179" t="s">
+      <c r="B137" s="192" t="s">
         <v>127</v>
       </c>
-      <c r="C137" s="183"/>
-      <c r="D137" s="183"/>
-      <c r="E137" s="183"/>
-      <c r="F137" s="183"/>
-      <c r="G137" s="183"/>
-      <c r="H137" s="183"/>
-      <c r="I137" s="183"/>
-      <c r="J137" s="183"/>
-      <c r="K137" s="180"/>
+      <c r="C137" s="177"/>
+      <c r="D137" s="177"/>
+      <c r="E137" s="177"/>
+      <c r="F137" s="177"/>
+      <c r="G137" s="177"/>
+      <c r="H137" s="177"/>
+      <c r="I137" s="177"/>
+      <c r="J137" s="177"/>
+      <c r="K137" s="193"/>
       <c r="L137" s="133"/>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="27"/>
       <c r="B138" s="55" t="s">
         <v>160</v>
@@ -5229,7 +5241,7 @@
       <c r="K138" s="30"/>
       <c r="L138" s="133"/>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="27"/>
       <c r="B139" s="61" t="s">
         <v>40</v>
@@ -5258,7 +5270,7 @@
       <c r="K139" s="30"/>
       <c r="L139" s="133"/>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="27"/>
       <c r="B140" s="75" t="s">
         <v>114</v>
@@ -5280,7 +5292,7 @@
       <c r="K140" s="30"/>
       <c r="L140" s="133"/>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="27"/>
       <c r="B141" s="75" t="s">
         <v>150</v>
@@ -5296,7 +5308,7 @@
       <c r="K141" s="30"/>
       <c r="L141" s="133"/>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="27"/>
       <c r="B142" s="75" t="s">
         <v>117</v>
@@ -5328,7 +5340,7 @@
       <c r="K142" s="30"/>
       <c r="L142" s="133"/>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="27"/>
       <c r="B143" s="75" t="s">
         <v>151</v>
@@ -5344,7 +5356,7 @@
       <c r="K143" s="30"/>
       <c r="L143" s="133"/>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="27"/>
       <c r="B144" s="75" t="s">
         <v>117</v>
@@ -5376,7 +5388,7 @@
       <c r="K144" s="30"/>
       <c r="L144" s="133"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="27"/>
       <c r="B145" s="75"/>
       <c r="C145" s="35"/>
@@ -5400,7 +5412,7 @@
         <v>2778.0740740740712</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="27"/>
       <c r="B146" s="134"/>
       <c r="C146" s="135"/>
@@ -5416,7 +5428,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="68"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
@@ -5430,7 +5442,7 @@
       <c r="K147" s="11"/>
       <c r="L147" s="133"/>
     </row>
-    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="68"/>
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
@@ -5444,7 +5456,7 @@
       <c r="K148" s="11"/>
       <c r="L148" s="133"/>
     </row>
-    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="68"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
@@ -5458,7 +5470,7 @@
       <c r="K149" s="11"/>
       <c r="L149" s="133"/>
     </row>
-    <row r="150" spans="1:12" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="68"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
@@ -5472,7 +5484,7 @@
       <c r="K150" s="11"/>
       <c r="L150" s="133"/>
     </row>
-    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="68"/>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
@@ -5486,7 +5498,7 @@
       <c r="K151" s="11"/>
       <c r="L151" s="133"/>
     </row>
-    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="68"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
@@ -5500,7 +5512,7 @@
       <c r="K152" s="11"/>
       <c r="L152" s="133"/>
     </row>
-    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="68"/>
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
@@ -5514,7 +5526,7 @@
       <c r="K153" s="11"/>
       <c r="L153" s="133"/>
     </row>
-    <row r="154" spans="1:12" ht="67.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" ht="67.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="68"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
@@ -5528,11 +5540,11 @@
       <c r="K154" s="11"/>
       <c r="L154" s="133"/>
     </row>
-    <row r="155" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="107" t="s">
         <v>119</v>
       </c>
-      <c r="B155" s="174" t="s">
+      <c r="B155" s="180" t="s">
         <v>126</v>
       </c>
       <c r="C155" s="175"/>
@@ -5546,7 +5558,7 @@
       <c r="K155" s="175"/>
       <c r="L155" s="26"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="68"/>
       <c r="B156" s="30" t="s">
         <v>120</v>
@@ -5562,7 +5574,7 @@
       <c r="K156" s="11"/>
       <c r="L156" s="27"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="68"/>
       <c r="B157" s="120" t="s">
         <v>55</v>
@@ -5578,7 +5590,7 @@
       <c r="K157" s="11"/>
       <c r="L157" s="27"/>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="68"/>
       <c r="B158" s="92" t="s">
         <v>40</v>
@@ -5607,7 +5619,7 @@
       <c r="K158" s="11"/>
       <c r="L158" s="27"/>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="68"/>
       <c r="B159" s="61" t="s">
         <v>40</v>
@@ -5636,7 +5648,7 @@
       <c r="K159" s="11"/>
       <c r="L159" s="27"/>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="68"/>
       <c r="B160" s="61" t="s">
         <v>40</v>
@@ -5663,15 +5675,15 @@
       <c r="K160" s="11"/>
       <c r="L160" s="27"/>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="68"/>
       <c r="B161" s="109"/>
       <c r="C161" s="62"/>
-      <c r="D161" s="173" t="s">
+      <c r="D161" s="188" t="s">
         <v>101</v>
       </c>
-      <c r="E161" s="173"/>
-      <c r="F161" s="173"/>
+      <c r="E161" s="188"/>
+      <c r="F161" s="188"/>
       <c r="G161" s="64">
         <f>SUM(G158:G160)</f>
         <v>1681.0000000000027</v>
@@ -5682,7 +5694,7 @@
       <c r="K161" s="11"/>
       <c r="L161" s="27"/>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="68"/>
       <c r="B162" s="73" t="s">
         <v>121</v>
@@ -5698,7 +5710,7 @@
       <c r="K162" s="73"/>
       <c r="L162" s="27"/>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="68"/>
       <c r="B163" s="77">
         <f>G161</f>
@@ -5736,7 +5748,7 @@
         <v>100.86000000000017</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" s="68"/>
       <c r="B164" s="77"/>
       <c r="C164" s="135"/>
@@ -5753,7 +5765,7 @@
         <v>100.86000000000017</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" s="87"/>
       <c r="B165" s="29"/>
       <c r="C165" s="29"/>
@@ -5769,11 +5781,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="107" t="s">
         <v>122</v>
       </c>
-      <c r="B166" s="174" t="s">
+      <c r="B166" s="180" t="s">
         <v>157</v>
       </c>
       <c r="C166" s="175"/>
@@ -5787,7 +5799,7 @@
       <c r="K166" s="175"/>
       <c r="L166" s="26"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" s="68"/>
       <c r="B167" s="11" t="s">
         <v>120</v>
@@ -5803,7 +5815,7 @@
       <c r="K167" s="11"/>
       <c r="L167" s="27"/>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="68"/>
       <c r="B168" s="55" t="s">
         <v>160</v>
@@ -5819,7 +5831,7 @@
       <c r="K168" s="11"/>
       <c r="L168" s="27"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" s="68"/>
       <c r="B169" s="92" t="s">
         <v>40</v>
@@ -5848,7 +5860,7 @@
       <c r="K169" s="11"/>
       <c r="L169" s="27"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" s="68"/>
       <c r="B170" s="36" t="s">
         <v>123</v>
@@ -5867,7 +5879,7 @@
         <v>9652.9999999999909</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" s="68"/>
       <c r="B171" s="36" t="s">
         <v>124</v>
@@ -5901,7 +5913,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" s="87"/>
       <c r="B172" s="99"/>
       <c r="C172" s="39"/>
@@ -5917,6 +5929,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D161:F161"/>
+    <mergeCell ref="B166:K166"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B122:K122"/>
+    <mergeCell ref="B136:K136"/>
+    <mergeCell ref="B155:K155"/>
+    <mergeCell ref="B137:K137"/>
     <mergeCell ref="B88:K88"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="B2:I2"/>
@@ -5929,15 +5950,6 @@
     <mergeCell ref="B69:K69"/>
     <mergeCell ref="B83:F83"/>
     <mergeCell ref="B85:K85"/>
-    <mergeCell ref="D161:F161"/>
-    <mergeCell ref="B166:K166"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="D108:F108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B122:K122"/>
-    <mergeCell ref="B136:K136"/>
-    <mergeCell ref="B155:K155"/>
-    <mergeCell ref="B137:K137"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5949,31 +5961,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="40.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="193" t="s">
+    <row r="2" spans="1:9" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="194" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="193"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -5994,7 +6006,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -6014,7 +6026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
@@ -6036,7 +6048,7 @@
         <v>31364.567000000025</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="306" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="317.39999999999998" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -6058,7 +6070,7 @@
         <v>7696227.6160000078</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="297" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="297" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -6080,7 +6092,7 @@
         <v>2823334.6400000029</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -6102,7 +6114,7 @@
         <v>303817.30400000029</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -6124,7 +6136,7 @@
         <v>3061928.1341600046</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -6138,7 +6150,7 @@
       <c r="D10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="173">
         <v>250.13</v>
       </c>
       <c r="F10" s="7">
@@ -6146,7 +6158,7 @@
         <v>9414533.0128000062</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="111" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -6168,7 +6180,7 @@
         <v>7611472.2925800104</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="24" t="s">
         <v>35</v>
@@ -6188,14 +6200,14 @@
         <v>8091006.3489400111</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="162" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="162" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="138">
+      <c r="C13" s="196">
         <f>Detail!L99</f>
         <v>156604.88750000024</v>
       </c>
@@ -6210,12 +6222,12 @@
         <v>71620113.20037511</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="138">
+      <c r="C14" s="196">
         <f>Detail!L114</f>
         <v>53231.666666666759</v>
       </c>
@@ -6230,7 +6242,7 @@
         <v>20278603.416666701</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="17" t="s">
         <v>32</v>
@@ -6250,7 +6262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="69" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>20</v>
       </c>
@@ -6272,7 +6284,7 @@
         <v>4498003.1806710074</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="18" t="s">
         <v>22</v>
@@ -6292,7 +6304,7 @@
         <v>7045430.385070011</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="303" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="303" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -6314,7 +6326,7 @@
         <v>943989.57037036947</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
@@ -6336,7 +6348,7 @@
         <v>1301866.5876000021</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="163.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
@@ -6358,7 +6370,7 @@
         <v>318259.40999999968</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="165" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="162" t="s">
         <v>140</v>
       </c>
@@ -6379,7 +6391,7 @@
         <v>967050.85</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="149" t="s">
         <v>141</v>
       </c>
@@ -6400,7 +6412,7 @@
         <v>111148.95</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="149" t="s">
         <v>142</v>
       </c>
@@ -6421,7 +6433,7 @@
         <v>110909.92</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="149" t="s">
         <v>143</v>
       </c>
@@ -6442,7 +6454,7 @@
         <v>299743.2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="152.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="149" t="s">
         <v>144</v>
       </c>
@@ -6463,7 +6475,7 @@
         <v>92026.55</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="149" t="s">
         <v>134</v>
       </c>
@@ -6484,7 +6496,7 @@
         <v>112344.1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="149" t="s">
         <v>145</v>
       </c>
@@ -6505,20 +6517,20 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="15"/>
-      <c r="D28" s="194" t="s">
+      <c r="D28" s="195" t="s">
         <v>125</v>
       </c>
-      <c r="E28" s="194"/>
+      <c r="E28" s="195"/>
       <c r="F28" s="139">
         <f>SUM(F5:F27)</f>
         <v>146983173.23623323</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -6526,7 +6538,7 @@
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -6534,7 +6546,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -6542,7 +6554,7 @@
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -6550,7 +6562,7 @@
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -6558,7 +6570,7 @@
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -6566,7 +6578,7 @@
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -6574,7 +6586,7 @@
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -6582,7 +6594,7 @@
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -6590,7 +6602,7 @@
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -6598,7 +6610,7 @@
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -6606,7 +6618,7 @@
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -6614,7 +6626,7 @@
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -6622,7 +6634,7 @@
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -6630,7 +6642,7 @@
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -6638,7 +6650,7 @@
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -6646,7 +6658,7 @@
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -6654,7 +6666,7 @@
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -6662,7 +6674,7 @@
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -6670,7 +6682,7 @@
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -6678,7 +6690,7 @@
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -6686,7 +6698,7 @@
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -6694,7 +6706,7 @@
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -6702,7 +6714,7 @@
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -6727,7 +6739,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6739,7 +6751,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
